--- a/docs/authlist.xlsx
+++ b/docs/authlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HAIZAKURA\Desktop\Works\Project\SmartManholeDash\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{325ABD27-D49C-41FB-BB77-8E6FCFA44AE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C04CB7-E85C-4999-BA35-E6515CB403A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,15 +242,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="4" tint="0.39994506668294322"/>
       </left>
@@ -280,20 +271,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
@@ -304,25 +310,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="4">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="3">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="4">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="标题 1" xfId="1" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="2" builtinId="17"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="样式 1" xfId="3" xr:uid="{F7590543-11FF-4C2A-8D3D-8ACE1BC202B7}"/>
-    <cellStyle name="样式 2" xfId="4" xr:uid="{8F8A9D45-D954-43CB-A1D7-88CA7EFF7596}"/>
+    <cellStyle name="样式 1" xfId="2" xr:uid="{F7590543-11FF-4C2A-8D3D-8ACE1BC202B7}"/>
+    <cellStyle name="样式 2" xfId="3" xr:uid="{8F8A9D45-D954-43CB-A1D7-88CA7EFF7596}"/>
+    <cellStyle name="样式 3" xfId="4" xr:uid="{B23A0188-B2C7-4C35-BEB1-5B08A1CFB06B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -603,44 +609,44 @@
   <dimension ref="A1:N116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
@@ -671,614 +677,614 @@
       <c r="L4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14" ht="14.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
+      <c r="F9" s="4"/>
+      <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="4"/>
+      <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6" t="s">
+      <c r="A13" s="4"/>
+      <c r="B13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6" t="s">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6" t="s">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6" t="s">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="2"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="L23" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="6" t="s">
+      <c r="K25" s="4"/>
+      <c r="L25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6" t="s">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="6" t="s">
+      <c r="K27" s="4"/>
+      <c r="L27" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
       <c r="J28" s="2"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="6" t="s">
+      <c r="A29" s="4"/>
+      <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6" t="s">
+      <c r="F29" s="4"/>
+      <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="6" t="s">
+      <c r="K29" s="4"/>
+      <c r="L29" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="6" t="s">
+      <c r="K31" s="4"/>
+      <c r="L31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="5" t="s">
+      <c r="K33" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="6" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -2392,52 +2398,7 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="L35:N36"/>
-    <mergeCell ref="L29:N30"/>
-    <mergeCell ref="L31:N32"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="F33:F36"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="G35:I36"/>
-    <mergeCell ref="K33:K36"/>
-    <mergeCell ref="L33:N34"/>
-    <mergeCell ref="G29:I30"/>
-    <mergeCell ref="G31:I32"/>
-    <mergeCell ref="F23:F32"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:D24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="B27:D28"/>
-    <mergeCell ref="B29:D30"/>
-    <mergeCell ref="B31:D32"/>
-    <mergeCell ref="L19:N20"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="G23:I24"/>
-    <mergeCell ref="G25:I26"/>
-    <mergeCell ref="G27:I28"/>
-    <mergeCell ref="K23:K32"/>
-    <mergeCell ref="L23:N24"/>
-    <mergeCell ref="L25:N26"/>
-    <mergeCell ref="L27:N28"/>
-    <mergeCell ref="L13:N14"/>
-    <mergeCell ref="F15:F22"/>
-    <mergeCell ref="G15:I16"/>
-    <mergeCell ref="G17:I18"/>
-    <mergeCell ref="G19:I20"/>
-    <mergeCell ref="G21:I22"/>
-    <mergeCell ref="K15:K22"/>
-    <mergeCell ref="L15:N16"/>
-    <mergeCell ref="L17:N18"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="B19:D20"/>
-    <mergeCell ref="B21:D22"/>
-    <mergeCell ref="A15:A22"/>
-    <mergeCell ref="K7:K14"/>
-    <mergeCell ref="G11:I12"/>
-    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="A1:N2"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="F7:F14"/>
     <mergeCell ref="K5:N6"/>
@@ -2452,7 +2413,52 @@
     <mergeCell ref="F5:I6"/>
     <mergeCell ref="G7:I8"/>
     <mergeCell ref="G9:I10"/>
-    <mergeCell ref="A1:N2"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="B21:D22"/>
+    <mergeCell ref="A15:A22"/>
+    <mergeCell ref="L13:N14"/>
+    <mergeCell ref="F15:F22"/>
+    <mergeCell ref="G15:I16"/>
+    <mergeCell ref="G17:I18"/>
+    <mergeCell ref="G19:I20"/>
+    <mergeCell ref="G21:I22"/>
+    <mergeCell ref="K15:K22"/>
+    <mergeCell ref="L15:N16"/>
+    <mergeCell ref="L17:N18"/>
+    <mergeCell ref="K7:K14"/>
+    <mergeCell ref="G11:I12"/>
+    <mergeCell ref="G13:I14"/>
+    <mergeCell ref="L19:N20"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="G23:I24"/>
+    <mergeCell ref="G25:I26"/>
+    <mergeCell ref="G27:I28"/>
+    <mergeCell ref="K23:K32"/>
+    <mergeCell ref="L23:N24"/>
+    <mergeCell ref="L25:N26"/>
+    <mergeCell ref="L27:N28"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:D24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B29:D30"/>
+    <mergeCell ref="B31:D32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="G35:I36"/>
+    <mergeCell ref="K33:K36"/>
+    <mergeCell ref="L35:N36"/>
+    <mergeCell ref="L29:N30"/>
+    <mergeCell ref="L31:N32"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:D36"/>
+    <mergeCell ref="L33:N34"/>
+    <mergeCell ref="G29:I30"/>
+    <mergeCell ref="G31:I32"/>
+    <mergeCell ref="F23:F32"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
